--- a/학교리스트.xlsx
+++ b/학교리스트.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="642">
   <si>
     <t>번호</t>
   </si>
@@ -754,6 +754,12 @@
     <t>탑동초</t>
   </si>
   <si>
+    <t>하늘숲초</t>
+  </si>
+  <si>
+    <t>항동초</t>
+  </si>
+  <si>
     <t>흥일초</t>
   </si>
   <si>
@@ -985,13 +991,13 @@
     <t>마포중</t>
   </si>
   <si>
-    <t>명덕여중</t>
-  </si>
-  <si>
-    <t>봉영여중</t>
-  </si>
-  <si>
-    <t>신정여중</t>
+    <t>명덕여자중</t>
+  </si>
+  <si>
+    <t>봉영여자중</t>
+  </si>
+  <si>
+    <t>신정여자중</t>
   </si>
   <si>
     <t>양정중</t>
@@ -1261,6 +1267,9 @@
     <t>구일중</t>
   </si>
   <si>
+    <t>국립전통예술중</t>
+  </si>
+  <si>
     <t>난곡중</t>
   </si>
   <si>
@@ -1333,9 +1342,6 @@
     <t>윤중중</t>
   </si>
   <si>
-    <t>전통예술</t>
-  </si>
-  <si>
     <t>천왕중</t>
   </si>
   <si>
@@ -1618,7 +1624,7 @@
     <t>영락고</t>
   </si>
   <si>
-    <t>영락유헬스고</t>
+    <t>영락의료과학고</t>
   </si>
   <si>
     <t>인헌고</t>
@@ -1980,7 +1986,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B639"/>
+  <dimension ref="A1:B641"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -7098,6 +7104,22 @@
         <v>639</v>
       </c>
     </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="0" t="n">
+        <v>639</v>
+      </c>
+      <c r="B640" s="0" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="B641" s="0" t="s">
+        <v>641</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
